--- a/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03F.xlsx
+++ b/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03F.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14100"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1030,34 +1035,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,6 +1084,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1445,126 +1450,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="106.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="80.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="106.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="80.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="60" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="58"/>
+    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="46"/>
-    </row>
-    <row r="3" spans="1:21" ht="16" thickTop="1">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1626,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1739,7 +1744,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15">
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1796,7 +1801,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1855,7 +1860,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15">
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -1973,7 +1978,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -2030,7 +2035,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15">
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2087,7 +2092,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15">
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2146,7 +2151,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2205,7 +2210,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2266,7 +2271,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2325,7 +2330,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2386,7 +2391,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2445,7 +2450,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2504,7 +2509,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2567,7 +2572,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2628,7 +2633,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2685,7 +2690,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2744,7 +2749,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2862,7 +2867,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2919,7 +2924,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -2964,7 +2969,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" ht="15">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -3021,7 +3026,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3078,7 +3083,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3135,7 +3140,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -3158,7 +3163,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -3181,7 +3186,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="15">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -3204,7 +3209,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3227,7 +3232,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3250,7 +3255,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3273,7 +3278,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3296,7 +3301,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3319,7 +3324,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3342,7 +3347,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3365,7 +3370,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3388,7 +3393,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3411,7 +3416,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3434,7 +3439,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3457,7 +3462,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3480,7 +3485,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3503,7 +3508,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3526,7 +3531,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3549,7 +3554,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3572,7 +3577,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3595,7 +3600,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3618,7 +3623,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3641,7 +3646,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3664,7 +3669,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3687,7 +3692,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3710,7 +3715,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3733,7 +3738,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3756,7 +3761,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3779,7 +3784,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3802,7 +3807,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3825,7 +3830,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3848,7 +3853,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3871,7 +3876,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3894,7 +3899,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3917,7 +3922,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -3940,7 +3945,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -3963,7 +3968,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -3986,7 +3991,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4009,7 +4014,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4032,372 +4037,378 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="70" spans="1:21" hidden="1"/>
-    <row r="71" spans="1:21" hidden="1"/>
-    <row r="72" spans="1:21" hidden="1"/>
-    <row r="73" spans="1:21" hidden="1"/>
-    <row r="74" spans="1:21" hidden="1"/>
-    <row r="75" spans="1:21" hidden="1"/>
-    <row r="76" spans="1:21" hidden="1"/>
-    <row r="77" spans="1:21" hidden="1"/>
-    <row r="78" spans="1:21" hidden="1"/>
-    <row r="79" spans="1:21" hidden="1"/>
-    <row r="80" spans="1:21" hidden="1"/>
-    <row r="81" spans="1:1" hidden="1"/>
-    <row r="82" spans="1:1" hidden="1"/>
-    <row r="83" spans="1:1" hidden="1">
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1">
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1">
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1"/>
-    <row r="121" spans="1:1" hidden="1"/>
-    <row r="122" spans="1:1" hidden="1"/>
-    <row r="123" spans="1:1" hidden="1"/>
-    <row r="124" spans="1:1" hidden="1"/>
-    <row r="125" spans="1:1" hidden="1"/>
-    <row r="126" spans="1:1" hidden="1"/>
-    <row r="127" spans="1:1" hidden="1"/>
-    <row r="128" spans="1:1" hidden="1"/>
-    <row r="129" hidden="1"/>
-    <row r="130" hidden="1"/>
-    <row r="131" hidden="1"/>
-    <row r="132" hidden="1"/>
-    <row r="133" hidden="1"/>
-    <row r="134" hidden="1"/>
-    <row r="135" hidden="1"/>
-    <row r="136" hidden="1"/>
-    <row r="137" hidden="1"/>
-    <row r="138" hidden="1"/>
-    <row r="139" hidden="1"/>
-    <row r="140" hidden="1"/>
-    <row r="141" hidden="1"/>
-    <row r="142" hidden="1"/>
-    <row r="143" hidden="1"/>
-    <row r="144" hidden="1"/>
-    <row r="145" hidden="1"/>
-    <row r="146" hidden="1"/>
-    <row r="147" hidden="1"/>
-    <row r="148" hidden="1"/>
-    <row r="149" hidden="1"/>
-    <row r="150" hidden="1"/>
-    <row r="151" hidden="1"/>
-    <row r="152" hidden="1"/>
-    <row r="153" hidden="1"/>
-    <row r="154" hidden="1"/>
-    <row r="155" hidden="1"/>
-    <row r="156" hidden="1"/>
-    <row r="157" hidden="1"/>
-    <row r="158" hidden="1"/>
-    <row r="159" hidden="1"/>
-    <row r="160" hidden="1"/>
-    <row r="161" hidden="1"/>
-    <row r="162" hidden="1"/>
-    <row r="163" hidden="1"/>
-    <row r="164" hidden="1"/>
-    <row r="165" hidden="1"/>
-    <row r="166" hidden="1"/>
-    <row r="167" hidden="1"/>
-    <row r="168" hidden="1"/>
-    <row r="169" hidden="1"/>
-    <row r="170" hidden="1"/>
-    <row r="171" hidden="1"/>
-    <row r="172" hidden="1"/>
-    <row r="173" hidden="1"/>
-    <row r="174" hidden="1"/>
-    <row r="175" hidden="1"/>
-    <row r="176" hidden="1"/>
-    <row r="177" hidden="1"/>
-    <row r="178" hidden="1"/>
-    <row r="179" hidden="1"/>
-    <row r="180" hidden="1"/>
-    <row r="181" hidden="1"/>
-    <row r="182" hidden="1"/>
-    <row r="183" hidden="1"/>
-    <row r="184" hidden="1"/>
-    <row r="185" hidden="1"/>
-    <row r="186" hidden="1"/>
-    <row r="187" hidden="1"/>
-    <row r="188" hidden="1"/>
-    <row r="189" hidden="1"/>
-    <row r="190" hidden="1"/>
-    <row r="191" hidden="1"/>
-    <row r="192" hidden="1"/>
-    <row r="193" hidden="1"/>
-    <row r="194" hidden="1"/>
-    <row r="195" hidden="1"/>
-    <row r="196" hidden="1"/>
-    <row r="197" hidden="1"/>
-    <row r="198" hidden="1"/>
-    <row r="199" hidden="1"/>
-    <row r="200" hidden="1"/>
-    <row r="201" hidden="1"/>
-    <row r="202" hidden="1"/>
-    <row r="203" hidden="1"/>
-    <row r="204" hidden="1"/>
-    <row r="205" hidden="1"/>
-    <row r="206" hidden="1"/>
-    <row r="207" hidden="1"/>
-    <row r="208" hidden="1"/>
-    <row r="209" hidden="1"/>
-    <row r="210" hidden="1"/>
-    <row r="211" hidden="1"/>
-    <row r="212" hidden="1"/>
-    <row r="213" hidden="1"/>
-    <row r="214" hidden="1"/>
-    <row r="215" hidden="1"/>
-    <row r="216" hidden="1"/>
-    <row r="217" hidden="1"/>
-    <row r="218" hidden="1"/>
-    <row r="219" hidden="1"/>
-    <row r="220" hidden="1"/>
-    <row r="221" hidden="1"/>
-    <row r="222" hidden="1"/>
-    <row r="223" hidden="1"/>
-    <row r="224" hidden="1"/>
-    <row r="225" hidden="1"/>
-    <row r="226" hidden="1"/>
-    <row r="227" hidden="1"/>
-    <row r="228" hidden="1"/>
-    <row r="229" hidden="1"/>
-    <row r="230" hidden="1"/>
-    <row r="231" hidden="1"/>
-    <row r="232" hidden="1"/>
-    <row r="233" hidden="1"/>
-    <row r="234" hidden="1"/>
-    <row r="235" hidden="1"/>
-    <row r="236" hidden="1"/>
-    <row r="237" hidden="1"/>
-    <row r="238" hidden="1"/>
-    <row r="239" hidden="1"/>
-    <row r="240" hidden="1"/>
-    <row r="241" hidden="1"/>
-    <row r="242" hidden="1"/>
-    <row r="243" hidden="1"/>
-    <row r="244" hidden="1"/>
-    <row r="245" hidden="1"/>
-    <row r="246" hidden="1"/>
-    <row r="247" hidden="1"/>
-    <row r="248" hidden="1"/>
-    <row r="249" hidden="1"/>
-    <row r="250" hidden="1"/>
-    <row r="251" hidden="1"/>
-    <row r="252" hidden="1"/>
-    <row r="253" hidden="1"/>
-    <row r="254" hidden="1"/>
-    <row r="255" hidden="1"/>
-    <row r="256" hidden="1"/>
-    <row r="257" hidden="1"/>
-    <row r="258" hidden="1"/>
-    <row r="259" hidden="1"/>
-    <row r="260" hidden="1"/>
-    <row r="261" hidden="1"/>
-    <row r="262" hidden="1"/>
-    <row r="263" hidden="1"/>
-    <row r="264" hidden="1"/>
-    <row r="265" hidden="1"/>
-    <row r="266" hidden="1"/>
-    <row r="267" hidden="1"/>
-    <row r="268" hidden="1"/>
-    <row r="269" hidden="1"/>
-    <row r="270" hidden="1"/>
-    <row r="271" hidden="1"/>
-    <row r="272" hidden="1"/>
-    <row r="273" hidden="1"/>
-    <row r="274" hidden="1"/>
-    <row r="275" hidden="1"/>
-    <row r="276" hidden="1"/>
-    <row r="277" hidden="1"/>
-    <row r="278" hidden="1"/>
-    <row r="279" hidden="1"/>
-    <row r="280" hidden="1"/>
-    <row r="281" hidden="1"/>
-    <row r="282" hidden="1"/>
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4412,12 +4423,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4471,27 +4476,27 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="2"/>
-    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.33203125" style="2"/>
+    <col min="13" max="13" width="11.28515625" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4508,7 +4513,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4532,7 +4537,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4551,7 +4556,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4570,7 +4575,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4586,7 +4591,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4603,7 +4608,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4620,7 +4625,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4635,7 +4640,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4650,7 +4655,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4665,7 +4670,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4680,7 +4685,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4695,7 +4700,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4710,7 +4715,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4725,7 +4730,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4740,7 +4745,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4755,7 +4760,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -4769,7 +4774,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -4783,7 +4788,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -4797,7 +4802,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -4811,7 +4816,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4826,7 +4831,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4841,7 +4846,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4856,7 +4861,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4871,7 +4876,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -4886,7 +4891,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4901,7 +4906,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -4916,7 +4921,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -4931,7 +4936,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -4946,7 +4951,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -4961,7 +4966,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -4976,7 +4981,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -4991,7 +4996,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5006,7 +5011,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5021,7 +5026,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5036,7 +5041,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5051,7 +5056,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5066,7 +5071,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5081,7 +5086,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5096,7 +5101,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5111,7 +5116,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5126,7 +5131,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5141,7 +5146,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5156,7 +5161,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5171,7 +5176,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5186,7 +5191,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5201,7 +5206,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5216,7 +5221,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5231,7 +5236,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5243,7 +5248,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5255,7 +5260,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5268,7 +5273,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5281,7 +5286,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5294,7 +5299,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5307,7 +5312,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5320,7 +5325,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5333,7 +5338,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5346,7 +5351,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5359,7 +5364,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5372,7 +5377,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5385,7 +5390,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5398,7 +5403,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5411,7 +5416,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5424,7 +5429,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5437,7 +5442,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5450,7 +5455,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5463,7 +5468,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5476,7 +5481,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5489,7 +5494,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5502,7 +5507,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5515,7 +5520,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5529,7 +5534,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5543,7 +5548,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5557,7 +5562,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5571,7 +5576,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5585,7 +5590,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5599,7 +5604,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5613,7 +5618,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5627,7 +5632,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5641,7 +5646,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5655,7 +5660,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5669,7 +5674,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5683,7 +5688,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5697,7 +5702,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5711,7 +5716,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5725,7 +5730,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5739,7 +5744,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5753,7 +5758,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5767,7 +5772,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5781,7 +5786,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5795,7 +5800,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5809,7 +5814,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5823,7 +5828,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5837,7 +5842,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5851,7 +5856,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5865,7 +5870,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5879,7 +5884,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5893,7 +5898,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5907,7 +5912,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5921,7 +5926,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5935,7 +5940,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5949,7 +5954,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5963,7 +5968,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5977,7 +5982,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5991,7 +5996,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6005,7 +6010,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6019,7 +6024,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6033,7 +6038,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6047,7 +6052,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6061,7 +6066,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6075,7 +6080,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6089,7 +6094,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6103,7 +6108,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6117,7 +6122,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6131,7 +6136,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6145,7 +6150,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6159,7 +6164,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6173,7 +6178,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6187,7 +6192,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6201,7 +6206,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6215,7 +6220,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6229,7 +6234,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6243,7 +6248,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6257,7 +6262,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6271,7 +6276,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6285,7 +6290,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6299,7 +6304,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6313,7 +6318,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6327,7 +6332,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6341,7 +6346,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6355,7 +6360,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6369,7 +6374,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6383,7 +6388,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03F.xlsx
+++ b/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03F.xlsx
@@ -689,12 +689,6 @@
     <t>Actividad que propone realizar un experimento para analizar el movimiento de un objeto en dos dimensiones</t>
   </si>
   <si>
-    <t>Competencias: Identifica en un experimento las características del movimiento en dos dimensiones</t>
-  </si>
-  <si>
-    <t>Competencias: Identifica vectores en los distintos movimientos en dos dimensiones</t>
-  </si>
-  <si>
     <t>Actividad que permite a través de vectores analizar los diferentes movimientos en dos dimensiones</t>
   </si>
   <si>
@@ -711,6 +705,12 @@
   </si>
   <si>
     <t>Banco de actividades: Movimiento en dos dimensiones</t>
+  </si>
+  <si>
+    <t>Competencias: identifica en un experimento las características del movimiento en dos dimensiones</t>
+  </si>
+  <si>
+    <t>Competencias: identifica vectores en los distintos movimientos en dos dimensiones</t>
   </si>
 </sst>
 </file>
@@ -1030,34 +1030,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,6 +1079,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1445,9 +1445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1475,94 +1475,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="60" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="58"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61"/>
     </row>
     <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
@@ -2821,7 +2821,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="37" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H24" s="39">
         <v>22</v>
@@ -2878,7 +2878,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="37" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H25" s="39">
         <v>23</v>
@@ -2887,7 +2887,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -2913,7 +2913,7 @@
         <v>183</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>214</v>
@@ -2989,7 +2989,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -3046,7 +3046,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3072,7 +3072,7 @@
         <v>183</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>214</v>
@@ -3094,7 +3094,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
       <c r="G29" s="37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H29" s="39">
         <v>27</v>
@@ -3103,7 +3103,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -4398,6 +4398,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4412,12 +4418,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03F.xlsx
+++ b/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03F.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14100"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$29</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -1030,34 +1035,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,6 +1084,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1445,126 +1450,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="106.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="80.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="106.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="80.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="60" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="58"/>
+    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="46"/>
-    </row>
-    <row r="3" spans="1:21" ht="16" thickTop="1">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1626,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1739,7 +1744,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15">
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1796,7 +1801,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1855,7 +1860,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15">
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -1973,7 +1978,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -2030,7 +2035,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15">
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2087,7 +2092,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15">
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2146,7 +2151,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2205,7 +2210,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2266,7 +2271,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2325,7 +2330,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2386,7 +2391,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2445,7 +2450,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2504,7 +2509,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2567,7 +2572,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2628,7 +2633,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2685,7 +2690,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2744,7 +2749,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2862,7 +2867,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2919,7 +2924,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -2964,7 +2969,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" ht="15">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -3021,7 +3026,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3078,7 +3083,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3135,7 +3140,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -3158,7 +3163,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -3181,7 +3186,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="15">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -3204,7 +3209,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3227,7 +3232,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3250,7 +3255,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3273,7 +3278,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3296,7 +3301,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3319,7 +3324,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3342,7 +3347,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3365,7 +3370,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3388,7 +3393,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3411,7 +3416,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3434,7 +3439,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3457,7 +3462,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3480,7 +3485,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3503,7 +3508,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3526,7 +3531,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3549,7 +3554,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3572,7 +3577,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3595,7 +3600,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3618,7 +3623,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3641,7 +3646,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3664,7 +3669,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3687,7 +3692,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3710,7 +3715,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3733,7 +3738,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3756,7 +3761,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3779,7 +3784,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3802,7 +3807,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3825,7 +3830,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3848,7 +3853,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3871,7 +3876,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3894,7 +3899,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3917,7 +3922,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -3940,7 +3945,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -3963,7 +3968,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -3986,7 +3991,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4009,7 +4014,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4032,372 +4037,378 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="70" spans="1:21" hidden="1"/>
-    <row r="71" spans="1:21" hidden="1"/>
-    <row r="72" spans="1:21" hidden="1"/>
-    <row r="73" spans="1:21" hidden="1"/>
-    <row r="74" spans="1:21" hidden="1"/>
-    <row r="75" spans="1:21" hidden="1"/>
-    <row r="76" spans="1:21" hidden="1"/>
-    <row r="77" spans="1:21" hidden="1"/>
-    <row r="78" spans="1:21" hidden="1"/>
-    <row r="79" spans="1:21" hidden="1"/>
-    <row r="80" spans="1:21" hidden="1"/>
-    <row r="81" spans="1:1" hidden="1"/>
-    <row r="82" spans="1:1" hidden="1"/>
-    <row r="83" spans="1:1" hidden="1">
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1">
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1">
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1"/>
-    <row r="121" spans="1:1" hidden="1"/>
-    <row r="122" spans="1:1" hidden="1"/>
-    <row r="123" spans="1:1" hidden="1"/>
-    <row r="124" spans="1:1" hidden="1"/>
-    <row r="125" spans="1:1" hidden="1"/>
-    <row r="126" spans="1:1" hidden="1"/>
-    <row r="127" spans="1:1" hidden="1"/>
-    <row r="128" spans="1:1" hidden="1"/>
-    <row r="129" hidden="1"/>
-    <row r="130" hidden="1"/>
-    <row r="131" hidden="1"/>
-    <row r="132" hidden="1"/>
-    <row r="133" hidden="1"/>
-    <row r="134" hidden="1"/>
-    <row r="135" hidden="1"/>
-    <row r="136" hidden="1"/>
-    <row r="137" hidden="1"/>
-    <row r="138" hidden="1"/>
-    <row r="139" hidden="1"/>
-    <row r="140" hidden="1"/>
-    <row r="141" hidden="1"/>
-    <row r="142" hidden="1"/>
-    <row r="143" hidden="1"/>
-    <row r="144" hidden="1"/>
-    <row r="145" hidden="1"/>
-    <row r="146" hidden="1"/>
-    <row r="147" hidden="1"/>
-    <row r="148" hidden="1"/>
-    <row r="149" hidden="1"/>
-    <row r="150" hidden="1"/>
-    <row r="151" hidden="1"/>
-    <row r="152" hidden="1"/>
-    <row r="153" hidden="1"/>
-    <row r="154" hidden="1"/>
-    <row r="155" hidden="1"/>
-    <row r="156" hidden="1"/>
-    <row r="157" hidden="1"/>
-    <row r="158" hidden="1"/>
-    <row r="159" hidden="1"/>
-    <row r="160" hidden="1"/>
-    <row r="161" hidden="1"/>
-    <row r="162" hidden="1"/>
-    <row r="163" hidden="1"/>
-    <row r="164" hidden="1"/>
-    <row r="165" hidden="1"/>
-    <row r="166" hidden="1"/>
-    <row r="167" hidden="1"/>
-    <row r="168" hidden="1"/>
-    <row r="169" hidden="1"/>
-    <row r="170" hidden="1"/>
-    <row r="171" hidden="1"/>
-    <row r="172" hidden="1"/>
-    <row r="173" hidden="1"/>
-    <row r="174" hidden="1"/>
-    <row r="175" hidden="1"/>
-    <row r="176" hidden="1"/>
-    <row r="177" hidden="1"/>
-    <row r="178" hidden="1"/>
-    <row r="179" hidden="1"/>
-    <row r="180" hidden="1"/>
-    <row r="181" hidden="1"/>
-    <row r="182" hidden="1"/>
-    <row r="183" hidden="1"/>
-    <row r="184" hidden="1"/>
-    <row r="185" hidden="1"/>
-    <row r="186" hidden="1"/>
-    <row r="187" hidden="1"/>
-    <row r="188" hidden="1"/>
-    <row r="189" hidden="1"/>
-    <row r="190" hidden="1"/>
-    <row r="191" hidden="1"/>
-    <row r="192" hidden="1"/>
-    <row r="193" hidden="1"/>
-    <row r="194" hidden="1"/>
-    <row r="195" hidden="1"/>
-    <row r="196" hidden="1"/>
-    <row r="197" hidden="1"/>
-    <row r="198" hidden="1"/>
-    <row r="199" hidden="1"/>
-    <row r="200" hidden="1"/>
-    <row r="201" hidden="1"/>
-    <row r="202" hidden="1"/>
-    <row r="203" hidden="1"/>
-    <row r="204" hidden="1"/>
-    <row r="205" hidden="1"/>
-    <row r="206" hidden="1"/>
-    <row r="207" hidden="1"/>
-    <row r="208" hidden="1"/>
-    <row r="209" hidden="1"/>
-    <row r="210" hidden="1"/>
-    <row r="211" hidden="1"/>
-    <row r="212" hidden="1"/>
-    <row r="213" hidden="1"/>
-    <row r="214" hidden="1"/>
-    <row r="215" hidden="1"/>
-    <row r="216" hidden="1"/>
-    <row r="217" hidden="1"/>
-    <row r="218" hidden="1"/>
-    <row r="219" hidden="1"/>
-    <row r="220" hidden="1"/>
-    <row r="221" hidden="1"/>
-    <row r="222" hidden="1"/>
-    <row r="223" hidden="1"/>
-    <row r="224" hidden="1"/>
-    <row r="225" hidden="1"/>
-    <row r="226" hidden="1"/>
-    <row r="227" hidden="1"/>
-    <row r="228" hidden="1"/>
-    <row r="229" hidden="1"/>
-    <row r="230" hidden="1"/>
-    <row r="231" hidden="1"/>
-    <row r="232" hidden="1"/>
-    <row r="233" hidden="1"/>
-    <row r="234" hidden="1"/>
-    <row r="235" hidden="1"/>
-    <row r="236" hidden="1"/>
-    <row r="237" hidden="1"/>
-    <row r="238" hidden="1"/>
-    <row r="239" hidden="1"/>
-    <row r="240" hidden="1"/>
-    <row r="241" hidden="1"/>
-    <row r="242" hidden="1"/>
-    <row r="243" hidden="1"/>
-    <row r="244" hidden="1"/>
-    <row r="245" hidden="1"/>
-    <row r="246" hidden="1"/>
-    <row r="247" hidden="1"/>
-    <row r="248" hidden="1"/>
-    <row r="249" hidden="1"/>
-    <row r="250" hidden="1"/>
-    <row r="251" hidden="1"/>
-    <row r="252" hidden="1"/>
-    <row r="253" hidden="1"/>
-    <row r="254" hidden="1"/>
-    <row r="255" hidden="1"/>
-    <row r="256" hidden="1"/>
-    <row r="257" hidden="1"/>
-    <row r="258" hidden="1"/>
-    <row r="259" hidden="1"/>
-    <row r="260" hidden="1"/>
-    <row r="261" hidden="1"/>
-    <row r="262" hidden="1"/>
-    <row r="263" hidden="1"/>
-    <row r="264" hidden="1"/>
-    <row r="265" hidden="1"/>
-    <row r="266" hidden="1"/>
-    <row r="267" hidden="1"/>
-    <row r="268" hidden="1"/>
-    <row r="269" hidden="1"/>
-    <row r="270" hidden="1"/>
-    <row r="271" hidden="1"/>
-    <row r="272" hidden="1"/>
-    <row r="273" hidden="1"/>
-    <row r="274" hidden="1"/>
-    <row r="275" hidden="1"/>
-    <row r="276" hidden="1"/>
-    <row r="277" hidden="1"/>
-    <row r="278" hidden="1"/>
-    <row r="279" hidden="1"/>
-    <row r="280" hidden="1"/>
-    <row r="281" hidden="1"/>
-    <row r="282" hidden="1"/>
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
+  <autoFilter ref="A1:U29">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4412,12 +4423,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4471,27 +4476,27 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="2"/>
-    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.33203125" style="2"/>
+    <col min="13" max="13" width="11.28515625" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4508,7 +4513,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4532,7 +4537,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4551,7 +4556,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4570,7 +4575,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4586,7 +4591,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4603,7 +4608,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4620,7 +4625,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4635,7 +4640,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4650,7 +4655,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4665,7 +4670,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4680,7 +4685,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4695,7 +4700,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4710,7 +4715,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4725,7 +4730,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4740,7 +4745,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4755,7 +4760,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -4769,7 +4774,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -4783,7 +4788,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -4797,7 +4802,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -4811,7 +4816,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4826,7 +4831,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4841,7 +4846,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4856,7 +4861,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4871,7 +4876,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -4886,7 +4891,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4901,7 +4906,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -4916,7 +4921,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -4931,7 +4936,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -4946,7 +4951,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -4961,7 +4966,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -4976,7 +4981,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -4991,7 +4996,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5006,7 +5011,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5021,7 +5026,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5036,7 +5041,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5051,7 +5056,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5066,7 +5071,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5081,7 +5086,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5096,7 +5101,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5111,7 +5116,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5126,7 +5131,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5141,7 +5146,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5156,7 +5161,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5171,7 +5176,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5186,7 +5191,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5201,7 +5206,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5216,7 +5221,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5231,7 +5236,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5243,7 +5248,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5255,7 +5260,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5268,7 +5273,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5281,7 +5286,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5294,7 +5299,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5307,7 +5312,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5320,7 +5325,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5333,7 +5338,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5346,7 +5351,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5359,7 +5364,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5372,7 +5377,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5385,7 +5390,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5398,7 +5403,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5411,7 +5416,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5424,7 +5429,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5437,7 +5442,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5450,7 +5455,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5463,7 +5468,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5476,7 +5481,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5489,7 +5494,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5502,7 +5507,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5515,7 +5520,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5529,7 +5534,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5543,7 +5548,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5557,7 +5562,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5571,7 +5576,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5585,7 +5590,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5599,7 +5604,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5613,7 +5618,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5627,7 +5632,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5641,7 +5646,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5655,7 +5660,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5669,7 +5674,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5683,7 +5688,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5697,7 +5702,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5711,7 +5716,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5725,7 +5730,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5739,7 +5744,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5753,7 +5758,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5767,7 +5772,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5781,7 +5786,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5795,7 +5800,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5809,7 +5814,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5823,7 +5828,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5837,7 +5842,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5851,7 +5856,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5865,7 +5870,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5879,7 +5884,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5893,7 +5898,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5907,7 +5912,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5921,7 +5926,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5935,7 +5940,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5949,7 +5954,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5963,7 +5968,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5977,7 +5982,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5991,7 +5996,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6005,7 +6010,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6019,7 +6024,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6033,7 +6038,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6047,7 +6052,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6061,7 +6066,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6075,7 +6080,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6089,7 +6094,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6103,7 +6108,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6117,7 +6122,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6131,7 +6136,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6145,7 +6150,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6159,7 +6164,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6173,7 +6178,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6187,7 +6192,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6201,7 +6206,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6215,7 +6220,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6229,7 +6234,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6243,7 +6248,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6257,7 +6262,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6271,7 +6276,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6285,7 +6290,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6299,7 +6304,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6313,7 +6318,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6327,7 +6332,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6341,7 +6346,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6355,7 +6360,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6369,7 +6374,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6383,7 +6388,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03F.xlsx
+++ b/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03F.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion03\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="14100"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$29</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="228">
   <si>
     <t>Asignatura</t>
   </si>
@@ -695,9 +690,6 @@
   </si>
   <si>
     <t>Actividad que permite a través de vectores analizar los diferentes movimientos en dos dimensiones</t>
-  </si>
-  <si>
-    <t>Recurso M9B-02</t>
   </si>
   <si>
     <t>Evalúa tus conocimientos sobre el tema Movimiento en dos dimensiones</t>
@@ -781,6 +773,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1035,16 +1028,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,24 +1095,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1450,9 +1443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6:K23"/>
+      <selection pane="bottomLeft" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,104 +1463,104 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="80.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="61"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="46"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1611,7 +1604,7 @@
         <v>19</v>
       </c>
       <c r="Q3" s="26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>178</v>
@@ -1670,7 +1663,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
         <v>182</v>
@@ -1682,7 +1675,7 @@
         <v>185</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1729,7 +1722,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
         <v>182</v>
@@ -1741,7 +1734,7 @@
         <v>184</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1835,9 +1828,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="38" t="s">
         <v>174</v>
       </c>
@@ -1904,7 +1895,7 @@
         <v>19</v>
       </c>
       <c r="Q8" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
         <v>182</v>
@@ -1916,7 +1907,7 @@
         <v>193</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1963,7 +1954,7 @@
         <v>20</v>
       </c>
       <c r="Q9" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R9" s="11" t="s">
         <v>182</v>
@@ -1975,7 +1966,7 @@
         <v>192</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2020,7 +2011,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
         <v>178</v>
@@ -2077,7 +2068,7 @@
         <v>19</v>
       </c>
       <c r="Q11" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>182</v>
@@ -2089,7 +2080,7 @@
         <v>195</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2136,7 +2127,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>182</v>
@@ -2148,7 +2139,7 @@
         <v>196</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2195,7 +2186,7 @@
         <v>19</v>
       </c>
       <c r="Q13" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
         <v>178</v>
@@ -2246,9 +2237,7 @@
         <v>8</v>
       </c>
       <c r="M14" s="8"/>
-      <c r="N14" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="N14" s="8"/>
       <c r="O14" s="38" t="s">
         <v>175</v>
       </c>
@@ -2315,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="Q15" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
         <v>178</v>
@@ -2366,9 +2355,7 @@
         <v>8</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="N16" s="8"/>
       <c r="O16" s="38" t="s">
         <v>176</v>
       </c>
@@ -2435,7 +2422,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
         <v>182</v>
@@ -2447,7 +2434,7 @@
         <v>202</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2486,9 +2473,7 @@
         <v>8</v>
       </c>
       <c r="M18" s="8"/>
-      <c r="N18" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="N18" s="8"/>
       <c r="O18" s="38"/>
       <c r="P18" s="25" t="s">
         <v>19</v>
@@ -2547,9 +2532,7 @@
         <v>8</v>
       </c>
       <c r="M19" s="8"/>
-      <c r="N19" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="38" t="s">
         <v>177</v>
       </c>
@@ -2610,9 +2593,7 @@
         <v>8</v>
       </c>
       <c r="M20" s="8"/>
-      <c r="N20" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="N20" s="8"/>
       <c r="O20" s="38"/>
       <c r="P20" s="25" t="s">
         <v>19</v>
@@ -2666,9 +2647,7 @@
       <c r="L21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="38"/>
       <c r="P21" s="9" t="s">
@@ -2725,9 +2704,7 @@
       <c r="L22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="36"/>
       <c r="P22" s="9" t="s">
@@ -2785,9 +2762,7 @@
         <v>8</v>
       </c>
       <c r="M23" s="8"/>
-      <c r="N23" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="N23" s="8"/>
       <c r="O23" s="38" t="s">
         <v>210</v>
       </c>
@@ -2826,7 +2801,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H24" s="39">
         <v>22</v>
@@ -2843,9 +2818,7 @@
       <c r="L24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="32"/>
       <c r="P24" s="9" t="s">
@@ -2883,7 +2856,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H25" s="39">
         <v>23</v>
@@ -2909,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="Q25" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
         <v>182</v>
@@ -2918,7 +2891,7 @@
         <v>183</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>214</v>
@@ -2994,7 +2967,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -3011,7 +2984,7 @@
         <v>19</v>
       </c>
       <c r="Q27" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R27" s="11" t="s">
         <v>182</v>
@@ -3051,7 +3024,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3068,7 +3041,7 @@
         <v>20</v>
       </c>
       <c r="Q28" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R28" s="11" t="s">
         <v>182</v>
@@ -3077,7 +3050,7 @@
         <v>183</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>214</v>
@@ -3099,7 +3072,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
       <c r="G29" s="37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H29" s="39">
         <v>27</v>
@@ -3108,7 +3081,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3125,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R29" s="11" t="s">
         <v>182</v>
@@ -4403,12 +4376,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4423,6 +4390,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03F.xlsx
+++ b/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03F.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20740" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$29</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="230">
   <si>
     <t>Asignatura</t>
   </si>
@@ -708,6 +708,12 @@
   </si>
   <si>
     <t>Competencias: identifica vectores en los distintos movimientos en dos dimensiones</t>
+  </si>
+  <si>
+    <t>Analiza el movimiento en dos dimensiones</t>
+  </si>
+  <si>
+    <t>Revisa qué sabes sobre el tema Movimiento en dos dimensiones</t>
   </si>
 </sst>
 </file>
@@ -903,8 +909,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1028,34 +1036,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,8 +1087,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1119,6 +1127,7 @@
     <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1139,6 +1148,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1443,126 +1453,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="106.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="106.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="60" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="58"/>
+    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="46"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61"/>
+    </row>
+    <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +1688,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +1747,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1794,7 +1804,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1851,7 +1861,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1910,7 +1920,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -1969,7 +1979,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -2026,7 +2036,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2083,7 +2093,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2142,7 +2152,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2201,7 +2211,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2260,7 +2270,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2319,7 +2329,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2388,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2389,23 +2399,21 @@
         <v>126</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="36"/>
+        <v>124</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="39">
+        <v>228</v>
+      </c>
+      <c r="H17" s="40">
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2417,9 +2425,9 @@
       <c r="N17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="38"/>
-      <c r="P17" s="25" t="s">
-        <v>19</v>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="Q17" s="10">
         <v>6</v>
@@ -2431,13 +2439,13 @@
         <v>183</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2455,46 +2463,48 @@
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="H18" s="40">
+        <v>150</v>
+      </c>
+      <c r="H18" s="39">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O18" s="38"/>
       <c r="P18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="10" t="s">
-        <v>186</v>
+      <c r="Q18" s="10">
+        <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2505,16 +2515,14 @@
         <v>126</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F19" s="36"/>
       <c r="G19" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H19" s="39">
         <v>17</v>
@@ -2523,7 +2531,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
@@ -2533,9 +2541,7 @@
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="38" t="s">
-        <v>177</v>
-      </c>
+      <c r="O19" s="38"/>
       <c r="P19" s="25" t="s">
         <v>19</v>
       </c>
@@ -2546,16 +2552,16 @@
         <v>187</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2572,19 +2578,19 @@
         <v>134</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="39">
+        <v>151</v>
+      </c>
+      <c r="H20" s="40">
         <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -2594,7 +2600,9 @@
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="38"/>
+      <c r="O20" s="38" t="s">
+        <v>177</v>
+      </c>
       <c r="P20" s="25" t="s">
         <v>19</v>
       </c>
@@ -2608,13 +2616,13 @@
         <v>203</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2625,12 +2633,16 @@
         <v>126</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
+        <v>130</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>137</v>
+      </c>
       <c r="G21" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H21" s="39">
         <v>19</v>
@@ -2639,18 +2651,18 @@
         <v>20</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="38"/>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="10" t="s">
@@ -2663,13 +2675,13 @@
         <v>203</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2682,21 +2694,19 @@
       <c r="D22" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>135</v>
-      </c>
+      <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="H22" s="40">
+        <v>153</v>
+      </c>
+      <c r="H22" s="39">
         <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J22" s="41" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -2706,7 +2716,7 @@
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="36"/>
+      <c r="O22" s="38"/>
       <c r="P22" s="9" t="s">
         <v>19</v>
       </c>
@@ -2720,13 +2730,13 @@
         <v>203</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="U22" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2740,32 +2750,30 @@
         <v>131</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="H23" s="39">
+        <v>206</v>
+      </c>
+      <c r="H23" s="40">
         <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="38" t="s">
-        <v>210</v>
-      </c>
+      <c r="O23" s="36"/>
       <c r="P23" s="9" t="s">
         <v>19</v>
       </c>
@@ -2779,13 +2787,13 @@
         <v>203</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2796,12 +2804,14 @@
         <v>126</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="36"/>
       <c r="G24" s="37" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="H24" s="39">
         <v>22</v>
@@ -2810,17 +2820,19 @@
         <v>20</v>
       </c>
       <c r="J24" s="41" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="32"/>
+      <c r="O24" s="38" t="s">
+        <v>210</v>
+      </c>
       <c r="P24" s="9" t="s">
         <v>19</v>
       </c>
@@ -2831,16 +2843,16 @@
         <v>187</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2856,7 +2868,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H25" s="39">
         <v>23</v>
@@ -2865,7 +2877,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -2874,30 +2886,28 @@
         <v>8</v>
       </c>
       <c r="M25" s="8"/>
-      <c r="N25" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="N25" s="8"/>
       <c r="O25" s="32"/>
       <c r="P25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="10">
-        <v>6</v>
+      <c r="Q25" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -2908,12 +2918,12 @@
         <v>126</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="37" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="H26" s="40">
         <v>24</v>
@@ -2922,27 +2932,39 @@
         <v>20</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
+      <c r="N26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="32"/>
       <c r="P26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="10"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q26" s="10">
+        <v>6</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -2958,7 +2980,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H27" s="39">
         <v>25</v>
@@ -2967,39 +2989,27 @@
         <v>20</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="N27" s="8"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="10">
-        <v>6</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="U27" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q27" s="10"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="10"/>
+    </row>
+    <row r="28" spans="1:21" ht="15">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3034,11 +3044,11 @@
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="10">
         <v>6</v>
@@ -3050,13 +3060,13 @@
         <v>183</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3074,7 +3084,7 @@
       <c r="G29" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="40">
         <v>27</v>
       </c>
       <c r="I29" s="5" t="s">
@@ -3113,7 +3123,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15">
       <c r="A30" s="4"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -3136,7 +3146,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15">
       <c r="A31" s="4"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -3159,7 +3169,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -3182,7 +3192,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3205,7 +3215,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3228,7 +3238,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3251,7 +3261,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3274,7 +3284,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3297,7 +3307,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3320,7 +3330,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3343,7 +3353,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3366,7 +3376,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3389,7 +3399,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3412,7 +3422,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3435,7 +3445,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3458,7 +3468,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3481,7 +3491,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3504,7 +3514,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3527,7 +3537,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3550,7 +3560,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3573,7 +3583,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3596,7 +3606,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3619,7 +3629,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3642,7 +3652,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3665,7 +3675,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3688,7 +3698,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3711,7 +3721,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3734,7 +3744,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3757,7 +3767,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3780,7 +3790,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3803,7 +3813,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3826,7 +3836,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3849,7 +3859,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3872,7 +3882,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3895,7 +3905,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -3918,7 +3928,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -3941,7 +3951,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -3964,7 +3974,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -3987,7 +3997,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4010,372 +4020,378 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" hidden="1"/>
+    <row r="71" spans="1:21" hidden="1"/>
+    <row r="72" spans="1:21" hidden="1"/>
+    <row r="73" spans="1:21" hidden="1"/>
+    <row r="74" spans="1:21" hidden="1"/>
+    <row r="75" spans="1:21" hidden="1"/>
+    <row r="76" spans="1:21" hidden="1"/>
+    <row r="77" spans="1:21" hidden="1"/>
+    <row r="78" spans="1:21" hidden="1"/>
+    <row r="79" spans="1:21" hidden="1"/>
+    <row r="80" spans="1:21" hidden="1"/>
+    <row r="81" spans="1:1" hidden="1"/>
+    <row r="82" spans="1:1" hidden="1"/>
+    <row r="83" spans="1:1" hidden="1">
       <c r="A83" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" hidden="1">
       <c r="A84" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" hidden="1">
       <c r="A85" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" hidden="1">
       <c r="A86" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" hidden="1">
       <c r="A87" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" hidden="1">
       <c r="A88" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" hidden="1">
       <c r="A89" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" hidden="1">
       <c r="A90" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" hidden="1">
       <c r="A91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" hidden="1">
       <c r="A92" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" hidden="1">
       <c r="A93" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" hidden="1">
       <c r="A94" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" hidden="1">
       <c r="A95" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" hidden="1">
       <c r="A96" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" hidden="1">
       <c r="A97" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" hidden="1">
       <c r="A98" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" hidden="1">
       <c r="A99" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" hidden="1">
       <c r="A100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" hidden="1">
       <c r="A101" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" hidden="1">
       <c r="A102" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" hidden="1">
       <c r="A103" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" hidden="1">
       <c r="A104" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" hidden="1">
       <c r="A105" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" hidden="1">
       <c r="A106" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" hidden="1">
       <c r="A107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" hidden="1">
       <c r="A108" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" hidden="1">
       <c r="A109" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" hidden="1">
       <c r="A110" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" hidden="1">
       <c r="A111" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" hidden="1">
       <c r="A112" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" hidden="1">
       <c r="A113" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" hidden="1">
       <c r="A114" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1">
       <c r="A115" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1">
       <c r="A116" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1">
       <c r="A117" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1">
       <c r="A119" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:1" hidden="1"/>
+    <row r="121" spans="1:1" hidden="1"/>
+    <row r="122" spans="1:1" hidden="1"/>
+    <row r="123" spans="1:1" hidden="1"/>
+    <row r="124" spans="1:1" hidden="1"/>
+    <row r="125" spans="1:1" hidden="1"/>
+    <row r="126" spans="1:1" hidden="1"/>
+    <row r="127" spans="1:1" hidden="1"/>
+    <row r="128" spans="1:1" hidden="1"/>
+    <row r="129" hidden="1"/>
+    <row r="130" hidden="1"/>
+    <row r="131" hidden="1"/>
+    <row r="132" hidden="1"/>
+    <row r="133" hidden="1"/>
+    <row r="134" hidden="1"/>
+    <row r="135" hidden="1"/>
+    <row r="136" hidden="1"/>
+    <row r="137" hidden="1"/>
+    <row r="138" hidden="1"/>
+    <row r="139" hidden="1"/>
+    <row r="140" hidden="1"/>
+    <row r="141" hidden="1"/>
+    <row r="142" hidden="1"/>
+    <row r="143" hidden="1"/>
+    <row r="144" hidden="1"/>
+    <row r="145" hidden="1"/>
+    <row r="146" hidden="1"/>
+    <row r="147" hidden="1"/>
+    <row r="148" hidden="1"/>
+    <row r="149" hidden="1"/>
+    <row r="150" hidden="1"/>
+    <row r="151" hidden="1"/>
+    <row r="152" hidden="1"/>
+    <row r="153" hidden="1"/>
+    <row r="154" hidden="1"/>
+    <row r="155" hidden="1"/>
+    <row r="156" hidden="1"/>
+    <row r="157" hidden="1"/>
+    <row r="158" hidden="1"/>
+    <row r="159" hidden="1"/>
+    <row r="160" hidden="1"/>
+    <row r="161" hidden="1"/>
+    <row r="162" hidden="1"/>
+    <row r="163" hidden="1"/>
+    <row r="164" hidden="1"/>
+    <row r="165" hidden="1"/>
+    <row r="166" hidden="1"/>
+    <row r="167" hidden="1"/>
+    <row r="168" hidden="1"/>
+    <row r="169" hidden="1"/>
+    <row r="170" hidden="1"/>
+    <row r="171" hidden="1"/>
+    <row r="172" hidden="1"/>
+    <row r="173" hidden="1"/>
+    <row r="174" hidden="1"/>
+    <row r="175" hidden="1"/>
+    <row r="176" hidden="1"/>
+    <row r="177" hidden="1"/>
+    <row r="178" hidden="1"/>
+    <row r="179" hidden="1"/>
+    <row r="180" hidden="1"/>
+    <row r="181" hidden="1"/>
+    <row r="182" hidden="1"/>
+    <row r="183" hidden="1"/>
+    <row r="184" hidden="1"/>
+    <row r="185" hidden="1"/>
+    <row r="186" hidden="1"/>
+    <row r="187" hidden="1"/>
+    <row r="188" hidden="1"/>
+    <row r="189" hidden="1"/>
+    <row r="190" hidden="1"/>
+    <row r="191" hidden="1"/>
+    <row r="192" hidden="1"/>
+    <row r="193" hidden="1"/>
+    <row r="194" hidden="1"/>
+    <row r="195" hidden="1"/>
+    <row r="196" hidden="1"/>
+    <row r="197" hidden="1"/>
+    <row r="198" hidden="1"/>
+    <row r="199" hidden="1"/>
+    <row r="200" hidden="1"/>
+    <row r="201" hidden="1"/>
+    <row r="202" hidden="1"/>
+    <row r="203" hidden="1"/>
+    <row r="204" hidden="1"/>
+    <row r="205" hidden="1"/>
+    <row r="206" hidden="1"/>
+    <row r="207" hidden="1"/>
+    <row r="208" hidden="1"/>
+    <row r="209" hidden="1"/>
+    <row r="210" hidden="1"/>
+    <row r="211" hidden="1"/>
+    <row r="212" hidden="1"/>
+    <row r="213" hidden="1"/>
+    <row r="214" hidden="1"/>
+    <row r="215" hidden="1"/>
+    <row r="216" hidden="1"/>
+    <row r="217" hidden="1"/>
+    <row r="218" hidden="1"/>
+    <row r="219" hidden="1"/>
+    <row r="220" hidden="1"/>
+    <row r="221" hidden="1"/>
+    <row r="222" hidden="1"/>
+    <row r="223" hidden="1"/>
+    <row r="224" hidden="1"/>
+    <row r="225" hidden="1"/>
+    <row r="226" hidden="1"/>
+    <row r="227" hidden="1"/>
+    <row r="228" hidden="1"/>
+    <row r="229" hidden="1"/>
+    <row r="230" hidden="1"/>
+    <row r="231" hidden="1"/>
+    <row r="232" hidden="1"/>
+    <row r="233" hidden="1"/>
+    <row r="234" hidden="1"/>
+    <row r="235" hidden="1"/>
+    <row r="236" hidden="1"/>
+    <row r="237" hidden="1"/>
+    <row r="238" hidden="1"/>
+    <row r="239" hidden="1"/>
+    <row r="240" hidden="1"/>
+    <row r="241" hidden="1"/>
+    <row r="242" hidden="1"/>
+    <row r="243" hidden="1"/>
+    <row r="244" hidden="1"/>
+    <row r="245" hidden="1"/>
+    <row r="246" hidden="1"/>
+    <row r="247" hidden="1"/>
+    <row r="248" hidden="1"/>
+    <row r="249" hidden="1"/>
+    <row r="250" hidden="1"/>
+    <row r="251" hidden="1"/>
+    <row r="252" hidden="1"/>
+    <row r="253" hidden="1"/>
+    <row r="254" hidden="1"/>
+    <row r="255" hidden="1"/>
+    <row r="256" hidden="1"/>
+    <row r="257" hidden="1"/>
+    <row r="258" hidden="1"/>
+    <row r="259" hidden="1"/>
+    <row r="260" hidden="1"/>
+    <row r="261" hidden="1"/>
+    <row r="262" hidden="1"/>
+    <row r="263" hidden="1"/>
+    <row r="264" hidden="1"/>
+    <row r="265" hidden="1"/>
+    <row r="266" hidden="1"/>
+    <row r="267" hidden="1"/>
+    <row r="268" hidden="1"/>
+    <row r="269" hidden="1"/>
+    <row r="270" hidden="1"/>
+    <row r="271" hidden="1"/>
+    <row r="272" hidden="1"/>
+    <row r="273" hidden="1"/>
+    <row r="274" hidden="1"/>
+    <row r="275" hidden="1"/>
+    <row r="276" hidden="1"/>
+    <row r="277" hidden="1"/>
+    <row r="278" hidden="1"/>
+    <row r="279" hidden="1"/>
+    <row r="280" hidden="1"/>
+    <row r="281" hidden="1"/>
+    <row r="282" hidden="1"/>
   </sheetData>
   <autoFilter ref="A1:U29">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4390,12 +4406,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4449,27 +4459,27 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="2"/>
-    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.28515625" style="2"/>
+    <col min="13" max="13" width="11.33203125" style="2"/>
+    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4486,7 +4496,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4510,7 +4520,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4529,7 +4539,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4548,7 +4558,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4564,7 +4574,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4581,7 +4591,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4598,7 +4608,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4613,7 +4623,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4628,7 +4638,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4643,7 +4653,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4658,7 +4668,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4673,7 +4683,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4688,7 +4698,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4703,7 +4713,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4718,7 +4728,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4733,7 +4743,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -4747,7 +4757,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -4761,7 +4771,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -4775,7 +4785,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -4789,7 +4799,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4804,7 +4814,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4819,7 +4829,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4834,7 +4844,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4849,7 +4859,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -4864,7 +4874,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4879,7 +4889,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -4894,7 +4904,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -4909,7 +4919,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -4924,7 +4934,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -4939,7 +4949,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -4954,7 +4964,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -4969,7 +4979,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -4984,7 +4994,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -4999,7 +5009,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5014,7 +5024,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5029,7 +5039,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5044,7 +5054,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5059,7 +5069,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5074,7 +5084,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5089,7 +5099,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5104,7 +5114,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5119,7 +5129,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5134,7 +5144,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5149,7 +5159,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5164,7 +5174,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5179,7 +5189,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5194,7 +5204,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5209,7 +5219,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5221,7 +5231,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5233,7 +5243,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5246,7 +5256,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5259,7 +5269,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5272,7 +5282,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5285,7 +5295,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5298,7 +5308,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5311,7 +5321,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5324,7 +5334,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5337,7 +5347,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5350,7 +5360,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5363,7 +5373,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5376,7 +5386,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5389,7 +5399,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5402,7 +5412,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5415,7 +5425,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5428,7 +5438,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5441,7 +5451,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5454,7 +5464,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5467,7 +5477,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5480,7 +5490,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5493,7 +5503,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5507,7 +5517,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5521,7 +5531,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5535,7 +5545,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5549,7 +5559,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5563,7 +5573,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5577,7 +5587,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5591,7 +5601,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5605,7 +5615,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5619,7 +5629,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5633,7 +5643,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5647,7 +5657,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5661,7 +5671,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5675,7 +5685,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5689,7 +5699,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5703,7 +5713,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5717,7 +5727,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5731,7 +5741,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5745,7 +5755,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5759,7 +5769,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5773,7 +5783,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5787,7 +5797,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5801,7 +5811,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5815,7 +5825,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5829,7 +5839,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5843,7 +5853,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5857,7 +5867,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5871,7 +5881,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5885,7 +5895,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5899,7 +5909,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5913,7 +5923,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5927,7 +5937,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5941,7 +5951,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5955,7 +5965,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5969,7 +5979,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5983,7 +5993,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5997,7 +6007,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6011,7 +6021,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6025,7 +6035,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6039,7 +6049,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6053,7 +6063,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6067,7 +6077,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6081,7 +6091,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6095,7 +6105,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6109,7 +6119,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6123,7 +6133,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6137,7 +6147,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6151,7 +6161,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6165,7 +6175,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6179,7 +6189,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6193,7 +6203,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6207,7 +6217,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6221,7 +6231,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6235,7 +6245,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6249,7 +6259,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6263,7 +6273,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6277,7 +6287,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6291,7 +6301,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6305,7 +6315,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6319,7 +6329,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6333,7 +6343,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6347,7 +6357,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6361,7 +6371,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
